--- a/Laporan_testing_filter_sort.xlsx
+++ b/Laporan_testing_filter_sort.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_fitur_sort222602.png</t>
+          <t>hasil_screenshot\screenshot_fitur_sort231206.png</t>
         </is>
       </c>
     </row>
@@ -468,7 +468,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_fitur_sort222603.png</t>
+          <t>hasil_screenshot\screenshot_fitur_sort231208.png</t>
         </is>
       </c>
     </row>
@@ -485,7 +485,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_fitur_sort222606.png</t>
+          <t>hasil_screenshot\screenshot_fitur_sort231211.png</t>
         </is>
       </c>
     </row>
@@ -502,7 +502,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_fitur_sort222608.png</t>
+          <t>hasil_screenshot\screenshot_fitur_sort231212.png</t>
         </is>
       </c>
     </row>
@@ -519,7 +519,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_fitur_sort222611.png</t>
+          <t>hasil_screenshot\screenshot_fitur_sort231216.png</t>
         </is>
       </c>
     </row>

--- a/Laporan_testing_filter_sort.xlsx
+++ b/Laporan_testing_filter_sort.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_fitur_sort231206.png</t>
+          <t>hasil_screenshot\screenshot_fitur_Filter_111249.png</t>
         </is>
       </c>
     </row>
@@ -468,7 +468,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_fitur_sort231208.png</t>
+          <t>hasil_screenshot\screenshot_fitur_Filter_111251.png</t>
         </is>
       </c>
     </row>
@@ -485,7 +485,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_fitur_sort231211.png</t>
+          <t>hasil_screenshot\screenshot_fitur_Filter_111254.png</t>
         </is>
       </c>
     </row>
@@ -502,7 +502,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_fitur_sort231212.png</t>
+          <t>hasil_screenshot\screenshot_fitur_Filter_111255.png</t>
         </is>
       </c>
     </row>
@@ -519,7 +519,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_fitur_sort231216.png</t>
+          <t>hasil_screenshot\screenshot_fitur_Filter_111258.png</t>
         </is>
       </c>
     </row>

--- a/Laporan_testing_filter_sort.xlsx
+++ b/Laporan_testing_filter_sort.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_fitur_Filter_111249.png</t>
+          <t>hasil_screenshot\screenshot_fitur_Filter_124349.png</t>
         </is>
       </c>
     </row>
@@ -468,7 +468,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_fitur_Filter_111251.png</t>
+          <t>hasil_screenshot\screenshot_fitur_Filter_124350.png</t>
         </is>
       </c>
     </row>
@@ -485,7 +485,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_fitur_Filter_111254.png</t>
+          <t>hasil_screenshot\screenshot_fitur_Filter_124353.png</t>
         </is>
       </c>
     </row>
@@ -502,7 +502,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_fitur_Filter_111255.png</t>
+          <t>hasil_screenshot\screenshot_fitur_Filter_124355.png</t>
         </is>
       </c>
     </row>
@@ -519,7 +519,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_fitur_Filter_111258.png</t>
+          <t>hasil_screenshot\screenshot_fitur_Filter_124358.png</t>
         </is>
       </c>
     </row>
